--- a/Book 9 .xlsx
+++ b/Book 9 .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29128"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB031D4E-6F62-4372-A422-EB57BC85818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E98F08-0317-43D2-BE16-A48E09FA3531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,45 +31,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Grupo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente </t>
-  </si>
-  <si>
-    <t>CNJ</t>
-  </si>
-  <si>
-    <t>Numero da nota</t>
-  </si>
-  <si>
-    <t>Data de Emisão</t>
-  </si>
-  <si>
-    <t>Data de Venciento</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Carrefuor</t>
-  </si>
-  <si>
-    <t>Sofisa</t>
-  </si>
-  <si>
-    <t>Hiper Avenida Norte Loja Bs307</t>
-  </si>
-  <si>
-    <t>123.456.78/0001-99</t>
-  </si>
-  <si>
-    <t>20500.00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIENTE </t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>NUMERO DA NOTA</t>
+  </si>
+  <si>
+    <t>DATA DE EMISÃO</t>
+  </si>
+  <si>
+    <t>DATA DE VENCIMENTO</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>Grupo Orion</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Carvalho</t>
+  </si>
+  <si>
+    <t>91.070.738/0001-89</t>
+  </si>
+  <si>
+    <t>Grupo Verdemar</t>
+  </si>
+  <si>
+    <t>Banco do Brasil</t>
+  </si>
+  <si>
+    <t>da Cunha Ribeiro e Filhos</t>
+  </si>
+  <si>
+    <t>32.567.604/0001-59</t>
+  </si>
+  <si>
+    <t>Grupo Solarium</t>
+  </si>
+  <si>
+    <t>Rocha Nascimento - ME</t>
+  </si>
+  <si>
+    <t>00.685.296/0001-83</t>
+  </si>
+  <si>
+    <t>Caixa</t>
+  </si>
+  <si>
+    <t>Silveira Ltda.</t>
+  </si>
+  <si>
+    <t>44.152.690/0001-59</t>
+  </si>
+  <si>
+    <t>Nunes</t>
+  </si>
+  <si>
+    <t>53.349.230/0001-25</t>
+  </si>
+  <si>
+    <t>Itaú</t>
+  </si>
+  <si>
+    <t>Viana S/A</t>
+  </si>
+  <si>
+    <t>86.808.877/0001-56</t>
+  </si>
+  <si>
+    <t>Bradesco</t>
+  </si>
+  <si>
+    <t>Carvalho Farias e Filhos</t>
+  </si>
+  <si>
+    <t>45.383.359/0001-43</t>
+  </si>
+  <si>
+    <t>Duarte Caldeira S/A</t>
+  </si>
+  <si>
+    <t>10.785.962/0001-29</t>
+  </si>
+  <si>
+    <t>Fernandes</t>
+  </si>
+  <si>
+    <t>91.750.277/0001-87</t>
+  </si>
+  <si>
+    <t>Pires Ltda.</t>
+  </si>
+  <si>
+    <t>82.418.234/0001-52</t>
   </si>
 </sst>
 </file>
@@ -77,29 +146,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,14 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,20 +518,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -516,19 +572,255 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
+      <c r="E2">
+        <v>92416</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45834</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45839</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2939.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="G7" s="2"/>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>63559</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45807</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45838</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2397.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>32435</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45802</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45831</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2935.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>39811</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45851</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45908</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3395.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>24226</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45854</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45901</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1126.3399999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>75878</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45836</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45841</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1284.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>55357</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45815</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45864</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2589.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>17316</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45790</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45849</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2131.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>95782</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45849</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45897</v>
+      </c>
+      <c r="H10" s="2">
+        <v>841.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>94393</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45786</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45807</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4182.71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
